--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R35c1df9786bc4a6f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R4429b5ee317541fc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R4429b5ee317541fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R5194f236773e4804"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R5194f236773e4804"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rc3a12b07c5f249b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rc3a12b07c5f249b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R21a5a3ee63ed427e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R21a5a3ee63ed427e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rfd957838c31b422e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rfd957838c31b422e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R49b7d0c27d724c94"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R49b7d0c27d724c94"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R08a05d5681724887"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R08a05d5681724887"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rcee6f81608b749c9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rcee6f81608b749c9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R5e78424373994c88"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R5e78424373994c88"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R955cf542e7e04242"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R955cf542e7e04242"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rbca61e246e3f476a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rbca61e246e3f476a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rbe53613e583042ab"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rbe53613e583042ab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rbab56a80f06443d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="Rbab56a80f06443d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R07e2c3ce716e483d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R07e2c3ce716e483d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R76fe64aa82214aa5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R76fe64aa82214aa5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R2267f17bb73f4598"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R2267f17bb73f4598"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R7566d1d3427e41e8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R7566d1d3427e41e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R2ec4adc45c974cc2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R2ec4adc45c974cc2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R6dd3b91e374545af"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R6dd3b91e374545af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R9463ff472e254429"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R9463ff472e254429"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R988101057d3240bf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/56_JsonMultiColumnArrayImport.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R988101057d3240bf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Persons" sheetId="1" r:id="R5354d5ed0dcf4835"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
